--- a/미에로화이바_정보 구조(IA).xlsx
+++ b/미에로화이바_정보 구조(IA).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>미에로화이바 사이트 정보구조 (IA) 설계</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -346,6 +346,42 @@
   </si>
   <si>
     <t>sns_con hover</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) logo 위 파란색 줄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>: style.css 호출 위치가 잘못됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 웹 버전에서의 자바스크립트 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 부모 요소에 relative X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) section_4 jQuery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>: mouseover 대신 mouseenter 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) slide_1 slick_slider</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>: arrow_item을 section_1 밖으로 뺌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -353,7 +389,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,8 +508,27 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,6 +544,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,7 +577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,15 +602,39 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,24 +645,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -860,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:N8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -875,78 +942,96 @@
     <col min="6" max="6" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:19" ht="27.75" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="K1" s="8" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="K1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="P1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="20">
         <v>45177</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="K2" s="9" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="K2" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="P2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="K3" s="19" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="K3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="13" t="s">
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="P3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
@@ -956,47 +1041,65 @@
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="K4" s="19" t="s">
+      <c r="H4" s="22"/>
+      <c r="K4" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="P4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="P5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="15" t="s">
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="P6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="B7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
@@ -1005,62 +1108,80 @@
       <c r="D7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="15"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="P7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="B8" s="10"/>
       <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9" s="15"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="P8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="B9" s="10"/>
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="B10" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="P9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="B10" s="10"/>
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-    </row>
-    <row r="11" spans="1:14" ht="17.25" thickBot="1">
-      <c r="B11" s="15"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="1:19" ht="17.25" thickBot="1">
+      <c r="B11" s="10"/>
       <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -1081,18 +1202,18 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="17.25" thickBot="1">
+    <row r="13" spans="1:19" ht="17.25" thickBot="1">
       <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1106,7 +1227,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:19">
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -1116,14 +1237,14 @@
       <c r="H15" t="s">
         <v>69</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-    </row>
-    <row r="16" spans="1:14" ht="17.25" thickBot="1">
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+    </row>
+    <row r="16" spans="1:19" ht="17.25" thickBot="1">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -1221,7 +1342,7 @@
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C27" t="s">
@@ -1232,31 +1353,31 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="B28" s="15"/>
+      <c r="B28" s="10"/>
       <c r="C28" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="15"/>
+      <c r="B29" s="10"/>
       <c r="C29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="B30" s="15"/>
+      <c r="B30" s="10"/>
       <c r="C30" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="B31" s="15"/>
+      <c r="B31" s="10"/>
       <c r="C31" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="B32" s="15"/>
+      <c r="B32" s="10"/>
       <c r="C32" t="s">
         <v>49</v>
       </c>
@@ -1310,17 +1431,9 @@
       <c r="H37" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K15:N15"/>
+  <mergeCells count="31">
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P9:S9"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="K4:N4"/>
@@ -1333,6 +1446,23 @@
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="P4:S4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/미에로화이바_정보 구조(IA).xlsx
+++ b/미에로화이바_정보 구조(IA).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\웹컴바인\포폴\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\웹컴바인\포폴\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFAD2B8-56CE-4666-9038-FD0204B06889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
   <si>
     <t>미에로화이바 사이트 정보구조 (IA) 설계</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,10 +51,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>HTML, CSS, JavaScript, jQuery</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2023-09-08 ~ 2023-10-06</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -337,10 +334,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>8) 글꼴 선택</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>hover -&gt; 색상 변경</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -382,14 +375,26 @@
   </si>
   <si>
     <t>: arrow_item을 section_1 밖으로 뺌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5) slide_4 slick_slider</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>: float: left가 되어있었음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5, CSS3, JavaScript, jQuery</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,15 +464,6 @@
       <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -577,7 +573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -587,65 +583,62 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,11 +919,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -943,54 +936,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="K1" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="P1" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="K1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="P1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="15">
         <v>45177</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="K2" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
+      <c r="K2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
       <c r="P2" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
@@ -1008,51 +1001,51 @@
         <v>5</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="K3" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
+      <c r="K3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
       <c r="P3" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="K4" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="K4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
       <c r="P4" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
@@ -1060,19 +1053,19 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="K5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
       <c r="P5" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
@@ -1080,145 +1073,154 @@
     </row>
     <row r="6" spans="1:19">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
       <c r="P6" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
+        <v>57</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
       <c r="P7" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="B8" s="10"/>
+      <c r="B8" s="18"/>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
       <c r="P8" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="10"/>
+      <c r="B9" s="18"/>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
+        <v>18</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
       <c r="P9" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="B10" s="10"/>
+      <c r="B10" s="18"/>
       <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="P10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="1:19" ht="17.25" thickBot="1">
+      <c r="B11" s="18"/>
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K11" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-    </row>
-    <row r="11" spans="1:19" ht="17.25" thickBot="1">
-      <c r="B11" s="10"/>
-      <c r="C11" t="s">
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="P11" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="K12" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="K12" s="7" t="s">
-        <v>77</v>
-      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:19" ht="17.25" thickBot="1">
       <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1226,35 +1228,35 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
+      <c r="K14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:19">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="17.25" thickBot="1">
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1265,20 +1267,20 @@
     </row>
     <row r="18" spans="1:8">
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1289,23 +1291,23 @@
     </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17.25" thickBot="1">
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1316,23 +1318,23 @@
     </row>
     <row r="24" spans="1:8">
       <c r="B24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17.25" thickBot="1">
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1342,60 +1344,60 @@
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
         <v>43</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="18"/>
+      <c r="C28" t="s">
         <v>44</v>
       </c>
-      <c r="E27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="B28" s="10"/>
-      <c r="C28" t="s">
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="18"/>
+      <c r="C29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="B29" s="10"/>
-      <c r="C29" t="s">
+    <row r="30" spans="1:8">
+      <c r="B30" s="18"/>
+      <c r="C30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="B30" s="10"/>
-      <c r="C30" t="s">
+    <row r="31" spans="1:8">
+      <c r="B31" s="18"/>
+      <c r="C31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="B31" s="10"/>
-      <c r="C31" t="s">
+    <row r="32" spans="1:8">
+      <c r="B32" s="18"/>
+      <c r="C32" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="B32" s="10"/>
-      <c r="C32" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="17.25" thickBot="1">
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1406,56 +1408,57 @@
     </row>
     <row r="35" spans="1:8">
       <c r="B35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1">
       <c r="B36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="P11:S11"/>
     <mergeCell ref="P8:S8"/>
     <mergeCell ref="P9:S9"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="K5:N5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
     <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K15:N15"/>
     <mergeCell ref="P5:S5"/>
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="P7:S7"/>
